--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.05871544411281</v>
+        <v>96.17831799999999</v>
       </c>
       <c r="H2">
-        <v>77.05871544411281</v>
+        <v>288.534954</v>
       </c>
       <c r="I2">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297997</v>
       </c>
       <c r="J2">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>472.3022942233466</v>
+        <v>693.8410297858586</v>
       </c>
       <c r="R2">
-        <v>472.3022942233466</v>
+        <v>6244.569268072727</v>
       </c>
       <c r="S2">
-        <v>0.2929715698599358</v>
+        <v>0.3393582462254739</v>
       </c>
       <c r="T2">
-        <v>0.2929715698599358</v>
+        <v>0.3393582462254739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.05871544411281</v>
+        <v>96.17831799999999</v>
       </c>
       <c r="H3">
-        <v>77.05871544411281</v>
+        <v>288.534954</v>
       </c>
       <c r="I3">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297997</v>
       </c>
       <c r="J3">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>545.6619327655837</v>
+        <v>683.8615675101786</v>
       </c>
       <c r="R3">
-        <v>545.6619327655837</v>
+        <v>6154.754107591607</v>
       </c>
       <c r="S3">
-        <v>0.3384769352391545</v>
+        <v>0.3344772826174364</v>
       </c>
       <c r="T3">
-        <v>0.3384769352391545</v>
+        <v>0.3344772826174364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.05871544411281</v>
+        <v>96.17831799999999</v>
       </c>
       <c r="H4">
-        <v>77.05871544411281</v>
+        <v>288.534954</v>
       </c>
       <c r="I4">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297997</v>
       </c>
       <c r="J4">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>79.32695986049538</v>
+        <v>102.0736962395673</v>
       </c>
       <c r="R4">
-        <v>79.32695986049538</v>
+        <v>918.6632661561058</v>
       </c>
       <c r="S4">
-        <v>0.0492069258328761</v>
+        <v>0.04992433288688936</v>
       </c>
       <c r="T4">
-        <v>0.0492069258328761</v>
+        <v>0.04992433288688935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.1160059288668</v>
+        <v>13.23504133333333</v>
       </c>
       <c r="H5">
-        <v>13.1160059288668</v>
+        <v>39.705124</v>
       </c>
       <c r="I5">
-        <v>0.1158529650561558</v>
+        <v>0.09959616558694152</v>
       </c>
       <c r="J5">
-        <v>0.1158529650561558</v>
+        <v>0.0995961655869415</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>80.38960493370222</v>
+        <v>95.47905285657421</v>
       </c>
       <c r="R5">
-        <v>80.38960493370222</v>
+        <v>859.3114757091679</v>
       </c>
       <c r="S5">
-        <v>0.04986609009929847</v>
+        <v>0.04669888711925341</v>
       </c>
       <c r="T5">
-        <v>0.04986609009929847</v>
+        <v>0.0466988871192534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1160059288668</v>
+        <v>13.23504133333333</v>
       </c>
       <c r="H6">
-        <v>13.1160059288668</v>
+        <v>39.705124</v>
       </c>
       <c r="I6">
-        <v>0.1158529650561558</v>
+        <v>0.09959616558694152</v>
       </c>
       <c r="J6">
-        <v>0.1158529650561558</v>
+        <v>0.0995961655869415</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>92.87599856892102</v>
+        <v>94.10578496782755</v>
       </c>
       <c r="R6">
-        <v>92.87599856892102</v>
+        <v>846.952064710448</v>
       </c>
       <c r="S6">
-        <v>0.05761146502112609</v>
+        <v>0.0460272206101877</v>
       </c>
       <c r="T6">
-        <v>0.05761146502112609</v>
+        <v>0.04602722061018769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1160059288668</v>
+        <v>13.23504133333333</v>
       </c>
       <c r="H7">
-        <v>13.1160059288668</v>
+        <v>39.705124</v>
       </c>
       <c r="I7">
-        <v>0.1158529650561558</v>
+        <v>0.09959616558694152</v>
       </c>
       <c r="J7">
-        <v>0.1158529650561558</v>
+        <v>0.0995961655869415</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>13.50207915941487</v>
+        <v>14.04630083858178</v>
       </c>
       <c r="R7">
-        <v>13.50207915941487</v>
+        <v>126.416707547236</v>
       </c>
       <c r="S7">
-        <v>0.008375409935731279</v>
+        <v>0.006870057857500412</v>
       </c>
       <c r="T7">
-        <v>0.008375409935731279</v>
+        <v>0.006870057857500411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.0377969471968</v>
+        <v>23.47369766666667</v>
       </c>
       <c r="H8">
-        <v>23.0377969471968</v>
+        <v>70.421093</v>
       </c>
       <c r="I8">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="J8">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>141.2014759044876</v>
+        <v>169.3418527232084</v>
       </c>
       <c r="R8">
-        <v>141.2014759044876</v>
+        <v>1524.076674508876</v>
       </c>
       <c r="S8">
-        <v>0.08758800998479829</v>
+        <v>0.08282524625339155</v>
       </c>
       <c r="T8">
-        <v>0.08758800998479829</v>
+        <v>0.08282524625339154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.0377969471968</v>
+        <v>23.47369766666667</v>
       </c>
       <c r="H9">
-        <v>23.0377969471968</v>
+        <v>70.421093</v>
       </c>
       <c r="I9">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="J9">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>163.1333812978694</v>
+        <v>166.9062218533151</v>
       </c>
       <c r="R9">
-        <v>163.1333812978694</v>
+        <v>1502.155996679836</v>
       </c>
       <c r="S9">
-        <v>0.1011924849825</v>
+        <v>0.08163397709377623</v>
       </c>
       <c r="T9">
-        <v>0.1011924849825</v>
+        <v>0.08163397709377622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.0377969471968</v>
+        <v>23.47369766666667</v>
       </c>
       <c r="H10">
-        <v>23.0377969471968</v>
+        <v>70.421093</v>
       </c>
       <c r="I10">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="J10">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>23.71592081663935</v>
+        <v>24.91254926340855</v>
       </c>
       <c r="R10">
-        <v>23.71592081663935</v>
+        <v>224.212943370677</v>
       </c>
       <c r="S10">
-        <v>0.01471110904457958</v>
+        <v>0.01218474933609116</v>
       </c>
       <c r="T10">
-        <v>0.01471110904457958</v>
+        <v>0.01218474933609116</v>
       </c>
     </row>
   </sheetData>
